--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -30571,19 +30571,19 @@
         <v>68800</v>
       </c>
       <c r="E735" t="n">
-        <v>69000</v>
+        <v>68900</v>
       </c>
       <c r="F735" t="n">
-        <v>21767078</v>
+        <v>23904780</v>
       </c>
       <c r="G735" t="n">
-        <v>-3.361344537815126</v>
+        <v>-3.50140056022409</v>
       </c>
       <c r="H735" t="n">
         <v>57951</v>
       </c>
       <c r="I735" t="n">
-        <v>13.96</v>
+        <v>13.92</v>
       </c>
       <c r="J735" t="n">
         <v>1.190000057220459</v>
@@ -30592,7 +30592,7 @@
         <v>4950</v>
       </c>
       <c r="L735" t="n">
-        <v>2.089999914169312</v>
+        <v>2.099999904632568</v>
       </c>
       <c r="M735" t="n">
         <v>1446</v>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -30574,7 +30574,7 @@
         <v>68900</v>
       </c>
       <c r="F735" t="n">
-        <v>23904780</v>
+        <v>23905838</v>
       </c>
       <c r="G735" t="n">
         <v>-3.50140056022409</v>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stock_Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FS_재무제표" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30601,4 +30602,37 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>메시지</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>데이터 없음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stock_Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FS_2020" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FS_2021" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FS_2022" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FS_2023" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FS_2024" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Stock_Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="FS_2020" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="FS_2021" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="FS_2022" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FS_2023" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="FS_2024" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -13,6 +13,7 @@
     <sheet name="FS_2022" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="FS_2023" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="FS_2024" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="FS_2025" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -61632,4 +61633,37 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>메시지</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025년 데이터 없음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M733"/>
+  <dimension ref="A1:M734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30492,22 +30492,22 @@
         <v>71500</v>
       </c>
       <c r="D733" t="n">
-        <v>70300</v>
+        <v>69700</v>
       </c>
       <c r="E733" t="n">
-        <v>70300</v>
+        <v>69900</v>
       </c>
       <c r="F733" t="n">
-        <v>5145153</v>
+        <v>14392903</v>
       </c>
       <c r="G733" t="n">
-        <v>0.860832137733142</v>
+        <v>0.2869440459110474</v>
       </c>
       <c r="H733" t="n">
         <v>57951</v>
       </c>
       <c r="I733" t="n">
-        <v>14.22</v>
+        <v>14.12</v>
       </c>
       <c r="J733" t="n">
         <v>1.210000038146973</v>
@@ -30516,9 +30516,50 @@
         <v>4950</v>
       </c>
       <c r="L733" t="n">
-        <v>2.049999952316284</v>
+        <v>2.069999933242798</v>
       </c>
       <c r="M733" t="n">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B734" t="n">
+        <v>69200</v>
+      </c>
+      <c r="C734" t="n">
+        <v>69400</v>
+      </c>
+      <c r="D734" t="n">
+        <v>68300</v>
+      </c>
+      <c r="E734" t="n">
+        <v>68850</v>
+      </c>
+      <c r="F734" t="n">
+        <v>4929093</v>
+      </c>
+      <c r="G734" t="n">
+        <v>-1.502145922746781</v>
+      </c>
+      <c r="H734" t="n">
+        <v>57951</v>
+      </c>
+      <c r="I734" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="J734" t="n">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="K734" t="n">
+        <v>4950</v>
+      </c>
+      <c r="L734" t="n">
+        <v>2.109999895095825</v>
+      </c>
+      <c r="M734" t="n">
         <v>1446</v>
       </c>
     </row>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M734"/>
+  <dimension ref="A1:M735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30536,30 +30536,71 @@
         <v>68300</v>
       </c>
       <c r="E734" t="n">
-        <v>68850</v>
+        <v>68800</v>
       </c>
       <c r="F734" t="n">
-        <v>4929093</v>
+        <v>12542415</v>
       </c>
       <c r="G734" t="n">
-        <v>-1.502145922746781</v>
+        <v>-1.573676680972818</v>
       </c>
       <c r="H734" t="n">
         <v>57951</v>
       </c>
       <c r="I734" t="n">
-        <v>13.85</v>
+        <v>13.9</v>
       </c>
       <c r="J734" t="n">
-        <v>1.179999947547913</v>
+        <v>1.190000057220459</v>
       </c>
       <c r="K734" t="n">
         <v>4950</v>
       </c>
       <c r="L734" t="n">
-        <v>2.109999895095825</v>
+        <v>2.099999904632568</v>
       </c>
       <c r="M734" t="n">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B735" t="n">
+        <v>70800</v>
+      </c>
+      <c r="C735" t="n">
+        <v>71000</v>
+      </c>
+      <c r="D735" t="n">
+        <v>69700</v>
+      </c>
+      <c r="E735" t="n">
+        <v>70600</v>
+      </c>
+      <c r="F735" t="n">
+        <v>6879593</v>
+      </c>
+      <c r="G735" t="n">
+        <v>2.616279069767442</v>
+      </c>
+      <c r="H735" t="n">
+        <v>57951</v>
+      </c>
+      <c r="I735" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="J735" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="K735" t="n">
+        <v>4950</v>
+      </c>
+      <c r="L735" t="n">
+        <v>2.059999942779541</v>
+      </c>
+      <c r="M735" t="n">
         <v>1446</v>
       </c>
     </row>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -30577,28 +30577,28 @@
         <v>69700</v>
       </c>
       <c r="E735" t="n">
-        <v>70600</v>
+        <v>70500</v>
       </c>
       <c r="F735" t="n">
-        <v>6879593</v>
+        <v>15008213</v>
       </c>
       <c r="G735" t="n">
-        <v>2.616279069767442</v>
+        <v>2.470930232558139</v>
       </c>
       <c r="H735" t="n">
         <v>57951</v>
       </c>
       <c r="I735" t="n">
-        <v>14.18</v>
+        <v>14.24</v>
       </c>
       <c r="J735" t="n">
-        <v>1.210000038146973</v>
+        <v>1.220000028610229</v>
       </c>
       <c r="K735" t="n">
         <v>4950</v>
       </c>
       <c r="L735" t="n">
-        <v>2.059999942779541</v>
+        <v>2.049999952316284</v>
       </c>
       <c r="M735" t="n">
         <v>1446</v>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M733"/>
+  <dimension ref="A1:M734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30489,25 +30489,25 @@
         <v>71100</v>
       </c>
       <c r="C733" t="n">
-        <v>72200</v>
+        <v>72400</v>
       </c>
       <c r="D733" t="n">
         <v>71100</v>
       </c>
       <c r="E733" t="n">
-        <v>72100</v>
+        <v>71100</v>
       </c>
       <c r="F733" t="n">
-        <v>3123266</v>
+        <v>15797656</v>
       </c>
       <c r="G733" t="n">
-        <v>1.549295774647887</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="H733" t="n">
         <v>57951</v>
       </c>
       <c r="I733" t="n">
-        <v>14.41</v>
+        <v>14.36</v>
       </c>
       <c r="J733" t="n">
         <v>1.230000019073486</v>
@@ -30519,6 +30519,47 @@
         <v>2.029999971389771</v>
       </c>
       <c r="M733" t="n">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B734" t="n">
+        <v>71900</v>
+      </c>
+      <c r="C734" t="n">
+        <v>72100</v>
+      </c>
+      <c r="D734" t="n">
+        <v>71400</v>
+      </c>
+      <c r="E734" t="n">
+        <v>71500</v>
+      </c>
+      <c r="F734" t="n">
+        <v>3456660</v>
+      </c>
+      <c r="G734" t="n">
+        <v>0.5625879043600562</v>
+      </c>
+      <c r="H734" t="n">
+        <v>57951</v>
+      </c>
+      <c r="I734" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="J734" t="n">
+        <v>1.240000009536743</v>
+      </c>
+      <c r="K734" t="n">
+        <v>4950</v>
+      </c>
+      <c r="L734" t="n">
+        <v>2.019999980926514</v>
+      </c>
+      <c r="M734" t="n">
         <v>1446</v>
       </c>
     </row>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M734"/>
+  <dimension ref="A1:M735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30536,19 +30536,19 @@
         <v>71400</v>
       </c>
       <c r="E734" t="n">
-        <v>71500</v>
+        <v>71900</v>
       </c>
       <c r="F734" t="n">
-        <v>3456660</v>
+        <v>12305742</v>
       </c>
       <c r="G734" t="n">
-        <v>0.5625879043600562</v>
+        <v>1.125175808720112</v>
       </c>
       <c r="H734" t="n">
         <v>57951</v>
       </c>
       <c r="I734" t="n">
-        <v>14.46</v>
+        <v>14.53</v>
       </c>
       <c r="J734" t="n">
         <v>1.240000009536743</v>
@@ -30557,9 +30557,50 @@
         <v>4950</v>
       </c>
       <c r="L734" t="n">
-        <v>2.019999980926514</v>
+        <v>2.009999990463257</v>
       </c>
       <c r="M734" t="n">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B735" t="n">
+        <v>71900</v>
+      </c>
+      <c r="C735" t="n">
+        <v>71900</v>
+      </c>
+      <c r="D735" t="n">
+        <v>71200</v>
+      </c>
+      <c r="E735" t="n">
+        <v>71500</v>
+      </c>
+      <c r="F735" t="n">
+        <v>2573751</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-0.5563282336578581</v>
+      </c>
+      <c r="H735" t="n">
+        <v>57951</v>
+      </c>
+      <c r="I735" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="J735" t="n">
+        <v>1.230000019073486</v>
+      </c>
+      <c r="K735" t="n">
+        <v>4950</v>
+      </c>
+      <c r="L735" t="n">
+        <v>2.029999971389771</v>
+      </c>
+      <c r="M735" t="n">
         <v>1446</v>
       </c>
     </row>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -30577,28 +30577,28 @@
         <v>71200</v>
       </c>
       <c r="E735" t="n">
-        <v>71500</v>
+        <v>71600</v>
       </c>
       <c r="F735" t="n">
-        <v>2573751</v>
+        <v>11795785</v>
       </c>
       <c r="G735" t="n">
-        <v>-0.5563282336578581</v>
+        <v>-0.4172461752433936</v>
       </c>
       <c r="H735" t="n">
         <v>57951</v>
       </c>
       <c r="I735" t="n">
-        <v>14.42</v>
+        <v>14.46</v>
       </c>
       <c r="J735" t="n">
-        <v>1.230000019073486</v>
+        <v>1.240000009536743</v>
       </c>
       <c r="K735" t="n">
         <v>4950</v>
       </c>
       <c r="L735" t="n">
-        <v>2.029999971389771</v>
+        <v>2.019999980926514</v>
       </c>
       <c r="M735" t="n">
         <v>1446</v>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M733"/>
+  <dimension ref="A1:M734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30495,19 +30495,19 @@
         <v>69700</v>
       </c>
       <c r="E733" t="n">
-        <v>70450</v>
+        <v>70000</v>
       </c>
       <c r="F733" t="n">
-        <v>3672690</v>
+        <v>10533082</v>
       </c>
       <c r="G733" t="n">
-        <v>0.6428571428571428</v>
+        <v>0</v>
       </c>
       <c r="H733" t="n">
         <v>57951</v>
       </c>
       <c r="I733" t="n">
-        <v>14.17</v>
+        <v>14.14</v>
       </c>
       <c r="J733" t="n">
         <v>1.210000038146973</v>
@@ -30516,9 +30516,50 @@
         <v>4950</v>
       </c>
       <c r="L733" t="n">
-        <v>2.059999942779541</v>
+        <v>2.069999933242798</v>
       </c>
       <c r="M733" t="n">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B734" t="n">
+        <v>70100</v>
+      </c>
+      <c r="C734" t="n">
+        <v>70700</v>
+      </c>
+      <c r="D734" t="n">
+        <v>69400</v>
+      </c>
+      <c r="E734" t="n">
+        <v>70400</v>
+      </c>
+      <c r="F734" t="n">
+        <v>6382355</v>
+      </c>
+      <c r="G734" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H734" t="n">
+        <v>57951</v>
+      </c>
+      <c r="I734" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="J734" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="K734" t="n">
+        <v>4950</v>
+      </c>
+      <c r="L734" t="n">
+        <v>2.049999952316284</v>
+      </c>
+      <c r="M734" t="n">
         <v>1446</v>
       </c>
     </row>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M734"/>
+  <dimension ref="A1:M735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30536,22 +30536,22 @@
         <v>69400</v>
       </c>
       <c r="E734" t="n">
-        <v>70400</v>
+        <v>70500</v>
       </c>
       <c r="F734" t="n">
-        <v>6382355</v>
+        <v>17445516</v>
       </c>
       <c r="G734" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H734" t="n">
         <v>57951</v>
       </c>
       <c r="I734" t="n">
-        <v>14.22</v>
+        <v>14.24</v>
       </c>
       <c r="J734" t="n">
-        <v>1.210000038146973</v>
+        <v>1.220000028610229</v>
       </c>
       <c r="K734" t="n">
         <v>4950</v>
@@ -30560,6 +30560,47 @@
         <v>2.049999952316284</v>
       </c>
       <c r="M734" t="n">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B735" t="n">
+        <v>71500</v>
+      </c>
+      <c r="C735" t="n">
+        <v>71900</v>
+      </c>
+      <c r="D735" t="n">
+        <v>71000</v>
+      </c>
+      <c r="E735" t="n">
+        <v>71700</v>
+      </c>
+      <c r="F735" t="n">
+        <v>5725027</v>
+      </c>
+      <c r="G735" t="n">
+        <v>1.702127659574468</v>
+      </c>
+      <c r="H735" t="n">
+        <v>57951</v>
+      </c>
+      <c r="I735" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="J735" t="n">
+        <v>1.240000009536743</v>
+      </c>
+      <c r="K735" t="n">
+        <v>4950</v>
+      </c>
+      <c r="L735" t="n">
+        <v>2.009999990463257</v>
+      </c>
+      <c r="M735" t="n">
         <v>1446</v>
       </c>
     </row>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M733"/>
+  <dimension ref="A1:M734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30495,30 +30495,71 @@
         <v>70300</v>
       </c>
       <c r="E733" t="n">
-        <v>70550</v>
+        <v>70300</v>
       </c>
       <c r="F733" t="n">
-        <v>3730351</v>
+        <v>14712519</v>
       </c>
       <c r="G733" t="n">
-        <v>-1.328671328671329</v>
+        <v>-1.678321678321678</v>
       </c>
       <c r="H733" t="n">
         <v>57951</v>
       </c>
       <c r="I733" t="n">
-        <v>14.24</v>
+        <v>14.2</v>
       </c>
       <c r="J733" t="n">
-        <v>1.220000028610229</v>
+        <v>1.210000038146973</v>
       </c>
       <c r="K733" t="n">
         <v>4950</v>
       </c>
       <c r="L733" t="n">
-        <v>2.049999952316284</v>
+        <v>2.059999942779541</v>
       </c>
       <c r="M733" t="n">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B734" t="n">
+        <v>70100</v>
+      </c>
+      <c r="C734" t="n">
+        <v>70500</v>
+      </c>
+      <c r="D734" t="n">
+        <v>69800</v>
+      </c>
+      <c r="E734" t="n">
+        <v>70350</v>
+      </c>
+      <c r="F734" t="n">
+        <v>3600357</v>
+      </c>
+      <c r="G734" t="n">
+        <v>0.07112375533428165</v>
+      </c>
+      <c r="H734" t="n">
+        <v>57951</v>
+      </c>
+      <c r="I734" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="J734" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="K734" t="n">
+        <v>4950</v>
+      </c>
+      <c r="L734" t="n">
+        <v>2.059999942779541</v>
+      </c>
+      <c r="M734" t="n">
         <v>1446</v>
       </c>
     </row>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M734"/>
+  <dimension ref="A1:M735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30530,36 +30530,77 @@
         <v>70100</v>
       </c>
       <c r="C734" t="n">
-        <v>70500</v>
+        <v>70900</v>
       </c>
       <c r="D734" t="n">
         <v>69800</v>
       </c>
       <c r="E734" t="n">
-        <v>70350</v>
+        <v>70600</v>
       </c>
       <c r="F734" t="n">
-        <v>3600357</v>
+        <v>10523405</v>
       </c>
       <c r="G734" t="n">
-        <v>0.07112375533428165</v>
+        <v>0.42674253200569</v>
       </c>
       <c r="H734" t="n">
         <v>57951</v>
       </c>
       <c r="I734" t="n">
-        <v>14.16</v>
+        <v>14.26</v>
       </c>
       <c r="J734" t="n">
-        <v>1.210000038146973</v>
+        <v>1.220000028610229</v>
       </c>
       <c r="K734" t="n">
         <v>4950</v>
       </c>
       <c r="L734" t="n">
+        <v>2.049999952316284</v>
+      </c>
+      <c r="M734" t="n">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B735" t="n">
+        <v>70100</v>
+      </c>
+      <c r="C735" t="n">
+        <v>70400</v>
+      </c>
+      <c r="D735" t="n">
+        <v>69900</v>
+      </c>
+      <c r="E735" t="n">
+        <v>70200</v>
+      </c>
+      <c r="F735" t="n">
+        <v>2074204</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-0.56657223796034</v>
+      </c>
+      <c r="H735" t="n">
+        <v>57951</v>
+      </c>
+      <c r="I735" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="J735" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="K735" t="n">
+        <v>4950</v>
+      </c>
+      <c r="L735" t="n">
         <v>2.059999942779541</v>
       </c>
-      <c r="M734" t="n">
+      <c r="M735" t="n">
         <v>1446</v>
       </c>
     </row>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M733"/>
+  <dimension ref="A1:M734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30489,25 +30489,25 @@
         <v>67800</v>
       </c>
       <c r="C733" t="n">
-        <v>69200</v>
+        <v>69500</v>
       </c>
       <c r="D733" t="n">
         <v>67800</v>
       </c>
       <c r="E733" t="n">
-        <v>68900</v>
+        <v>69100</v>
       </c>
       <c r="F733" t="n">
-        <v>3325768</v>
+        <v>10604028</v>
       </c>
       <c r="G733" t="n">
-        <v>1.923076923076923</v>
+        <v>2.218934911242604</v>
       </c>
       <c r="H733" t="n">
         <v>57951</v>
       </c>
       <c r="I733" t="n">
-        <v>13.93</v>
+        <v>13.96</v>
       </c>
       <c r="J733" t="n">
         <v>1.190000057220459</v>
@@ -30516,9 +30516,50 @@
         <v>4950</v>
       </c>
       <c r="L733" t="n">
-        <v>2.099999904632568</v>
+        <v>2.089999914169312</v>
       </c>
       <c r="M733" t="n">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B734" t="n">
+        <v>69200</v>
+      </c>
+      <c r="C734" t="n">
+        <v>69500</v>
+      </c>
+      <c r="D734" t="n">
+        <v>68800</v>
+      </c>
+      <c r="E734" t="n">
+        <v>69300</v>
+      </c>
+      <c r="F734" t="n">
+        <v>2912976</v>
+      </c>
+      <c r="G734" t="n">
+        <v>0.2894356005788712</v>
+      </c>
+      <c r="H734" t="n">
+        <v>57951</v>
+      </c>
+      <c r="I734" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="J734" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="K734" t="n">
+        <v>4950</v>
+      </c>
+      <c r="L734" t="n">
+        <v>2.089999914169312</v>
+      </c>
+      <c r="M734" t="n">
         <v>1446</v>
       </c>
     </row>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M734"/>
+  <dimension ref="A1:M735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30530,25 +30530,25 @@
         <v>69200</v>
       </c>
       <c r="C734" t="n">
-        <v>69500</v>
+        <v>69800</v>
       </c>
       <c r="D734" t="n">
         <v>68800</v>
       </c>
       <c r="E734" t="n">
-        <v>69300</v>
+        <v>69800</v>
       </c>
       <c r="F734" t="n">
-        <v>2912976</v>
+        <v>10283009</v>
       </c>
       <c r="G734" t="n">
-        <v>0.2894356005788712</v>
+        <v>1.013024602026049</v>
       </c>
       <c r="H734" t="n">
         <v>57951</v>
       </c>
       <c r="I734" t="n">
-        <v>14.01</v>
+        <v>14.1</v>
       </c>
       <c r="J734" t="n">
         <v>1.200000047683716</v>
@@ -30557,9 +30557,50 @@
         <v>4950</v>
       </c>
       <c r="L734" t="n">
-        <v>2.089999914169312</v>
+        <v>2.069999933242798</v>
       </c>
       <c r="M734" t="n">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B735" t="n">
+        <v>69500</v>
+      </c>
+      <c r="C735" t="n">
+        <v>69900</v>
+      </c>
+      <c r="D735" t="n">
+        <v>69300</v>
+      </c>
+      <c r="E735" t="n">
+        <v>69550</v>
+      </c>
+      <c r="F735" t="n">
+        <v>3333157</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-0.3581661891117479</v>
+      </c>
+      <c r="H735" t="n">
+        <v>57951</v>
+      </c>
+      <c r="I735" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="J735" t="n">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="K735" t="n">
+        <v>4950</v>
+      </c>
+      <c r="L735" t="n">
+        <v>2.069999933242798</v>
+      </c>
+      <c r="M735" t="n">
         <v>1446</v>
       </c>
     </row>
